--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -1194,13 +1194,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1347,12 +1359,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1541,12 +1559,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1667,139 +1700,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2337,7 +2379,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2349,1122 +2391,1123 @@
     <col min="5" max="5" width="28.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" ht="15.6" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="2" ht="15.6" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" ht="15.6" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" ht="15.6" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" ht="15.6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" ht="15.6" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" ht="15.6" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="9" ht="15.6" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="10" ht="15.6" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="11" ht="15.6" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="12" ht="15.6" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+    <row r="13" ht="15.6" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+    <row r="14" ht="15.6" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" ht="15.6" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" ht="15.6" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" ht="15.6" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" ht="15.6" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" ht="15.6" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" ht="15.6" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" ht="15.6" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" ht="15.6" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" ht="15.6" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="24" ht="15.6" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="25" ht="15.6" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+    <row r="26" ht="15.6" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="27" ht="15.6" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="28" ht="15.6" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="29" ht="15.6" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="30" ht="15.6" spans="1:5">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+    <row r="31" ht="15.6" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    <row r="32" ht="15.6" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+    <row r="33" ht="15.6" spans="1:5">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+    <row r="34" ht="15.6" spans="1:5">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35" ht="15.6" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" ht="15.6" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" ht="15.6" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" ht="15.6" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" ht="15.6" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="40" ht="15.6" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" ht="15.6" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" ht="15.6" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" ht="15.6" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="44" ht="15.6" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" ht="15.6" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" ht="15.6" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" ht="15.6" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" ht="15.6" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" ht="15.6" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" ht="15.6" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" ht="15.6" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" ht="15.6" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="53" ht="15.6" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="54" ht="15.6" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="55" ht="15.6" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="56" ht="15.6" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="57" ht="15.6" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="58" ht="15.6" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="59" ht="15.6" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="60" ht="15.6" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="61" ht="15.6" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="62" ht="15.6" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="63" ht="15.6" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="64" ht="15.6" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="65" ht="15.6" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="66" ht="15.6" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -2574,9 +2574,9 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="27948" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -2576,7 +2576,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -869,55 +869,55 @@
     <t>TejeepayOVO</t>
   </si>
   <si>
-    <t>wp101#OVO</t>
+    <t>wo101</t>
   </si>
   <si>
     <t>TejeepayDANA</t>
   </si>
   <si>
-    <t>wp101#DANA</t>
+    <t>wd101</t>
   </si>
   <si>
     <t>TejeepayLINKAJA</t>
   </si>
   <si>
-    <t>wp101#LINKAJA</t>
+    <t>wl101</t>
   </si>
   <si>
     <t>TejeepaySHOPEEPAY</t>
   </si>
   <si>
-    <t>wp101#SHOPEEPAY</t>
+    <t>ws101</t>
   </si>
   <si>
     <t>TejeepayBCA</t>
   </si>
   <si>
-    <t>bq101#BCA</t>
+    <t>vb101</t>
   </si>
   <si>
     <t>TejeepayBRI</t>
   </si>
   <si>
-    <t>bq101#BRI</t>
+    <t>vr101</t>
   </si>
   <si>
     <t>TejeepayBNI</t>
   </si>
   <si>
-    <t>bq101#BNI</t>
+    <t>vi101</t>
   </si>
   <si>
     <t>TejeepayPERMATA</t>
   </si>
   <si>
-    <t>bq101#PERMATA</t>
+    <t>vt101</t>
   </si>
   <si>
     <t>TejeepayMANDIRI</t>
   </si>
   <si>
-    <t>bq101#MANDIRI</t>
+    <t>vn101</t>
   </si>
   <si>
     <t>PayermaxFPX</t>
@@ -2574,9 +2574,9 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3550,7 +3550,7 @@
         <v>148</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="15.6" spans="1:7">
@@ -3895,7 +3895,7 @@
         <v>208</v>
       </c>
       <c r="G57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="15.6" spans="1:7">
@@ -3918,7 +3918,7 @@
         <v>212</v>
       </c>
       <c r="G58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="15.6" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>216</v>
       </c>
       <c r="G59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" ht="15.6" spans="1:7">
@@ -3964,7 +3964,7 @@
         <v>220</v>
       </c>
       <c r="G60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="1:7">
@@ -3987,7 +3987,7 @@
         <v>224</v>
       </c>
       <c r="G61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="15.6" spans="1:7">
@@ -4010,7 +4010,7 @@
         <v>228</v>
       </c>
       <c r="G62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" ht="15.6" spans="1:7">
@@ -4033,7 +4033,7 @@
         <v>232</v>
       </c>
       <c r="G63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" ht="15.6" spans="1:7">
@@ -4056,7 +4056,7 @@
         <v>236</v>
       </c>
       <c r="G64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" ht="15.6" spans="1:7">

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -2949,9 +2949,9 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -2949,9 +2949,9 @@
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -758,7 +758,7 @@
     <t>WALLET#GOPAY</t>
   </si>
   <si>
-    <t>LianLian</t>
+    <t>Lianlian</t>
   </si>
   <si>
     <t>LianLianPromptPayQR</t>
@@ -2954,7 +2954,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -5776,7 +5776,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>426</v>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -2955,7 +2955,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -2970,7 +2970,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="27948" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -3418,9 +3418,9 @@
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$G$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$G$182</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'第三方支付渠道2024-05-22_20-11-04'!$A$1:$J$1111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A:$A</definedName>
   </definedNames>
@@ -1809,7 +1809,7 @@
     <t>PagSmileETISALATCASH</t>
   </si>
   <si>
-    <t>EtisalatCash</t>
+    <t>Etisalat Cash</t>
   </si>
   <si>
     <t>Wallet#EtisalatCash</t>
@@ -1839,7 +1839,7 @@
     <t>PagSmileORANGECASH</t>
   </si>
   <si>
-    <t>OrangeCash</t>
+    <t>Orange Cash</t>
   </si>
   <si>
     <t>Wallet#OrangeCash</t>
@@ -1848,7 +1848,7 @@
     <t>PagSmileVODAFONECASH</t>
   </si>
   <si>
-    <t>VodafoneCash</t>
+    <t>Vodafone Cash</t>
   </si>
   <si>
     <t>Wallet#VodafoneCash</t>
@@ -3501,7 +3501,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
+      <selection pane="bottomLeft" activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7689,7 +7689,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G179" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G182" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Create_order/Excel Source/channel_ienh.xlsx
+++ b/Create_order/Excel Source/channel_ienh.xlsx
@@ -2904,7 +2904,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
